--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>5.14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.79000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.97</v>
+        <v>8.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.8</v>
+        <v>2.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.39</v>
-      </c>
       <c r="K5" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.65</v>
+        <v>11.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.15</v>
+        <v>2.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>22.6</v>
+        <v>2.26</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>37.52</v>
+        <v>3.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>141.31</v>
+        <v>14.13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>34.05</v>
+        <v>3.4</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>33.2</v>
+        <v>3.32</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>46.47</v>
+        <v>4.65</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>175.68</v>
+        <v>17.57</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.55</v>
+        <v>2.25</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>42.18</v>
+        <v>4.22</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>44.73</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>164.26</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>40.64</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>5.85</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>26.44</v>
+        <v>2.64</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>84.16</v>
+        <v>8.42</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>66.98999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.00694444445</v>
+        <v>40442.55555555555</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.01388888889</v>
+        <v>40442.5625</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.75</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.45</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.02083333334</v>
+        <v>40442.56944444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O4" s="4" t="n">
+      <c r="W4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.45</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.02777777778</v>
+        <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>3.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.99</v>
+        <v>4.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.27</v>
+        <v>16.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.2</v>
+        <v>3.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.48</v>
+        <v>2.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.72</v>
+        <v>3.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
+        <v>40442.58332175926</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.26</v>
+        <v>11.16</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.93</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.51</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.69</v>
+        <v>23.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.26</v>
+        <v>20.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.98</v>
+        <v>8.58</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.75</v>
+        <v>35.02</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.5</v>
+        <v>13.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.67</v>
+        <v>6.01</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.99</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.09</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.17</v>
+        <v>10.16</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.31</v>
+        <v>2.76</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.43</v>
+        <v>12.35</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.78</v>
+        <v>7.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>14.13</v>
+        <v>124.16</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.73</v>
+        <v>24.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.91</v>
+        <v>7.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.84</v>
+        <v>16.27</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.99</v>
+        <v>8.74</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.82</v>
+        <v>17.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.79</v>
+        <v>6.79</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.71</v>
+        <v>6.59</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.87</v>
+        <v>7.14</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.15</v>
+        <v>10.21</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.4</v>
+        <v>31.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.5</v>
+        <v>4.67</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>40751.04166666666</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>40751.04861111111</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>40751.05555555555</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>40751.0625</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>40751.06944444445</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.97</v>
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -444,28 +444,28 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40442.55555555555</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.5625</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.24</v>
+        <v>72.39</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40442.56944444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.08</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>95.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.12</v>
+        <v>31.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.21</v>
+        <v>42.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.42</v>
+        <v>164.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.13</v>
+        <v>31.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.79</v>
+        <v>37.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.5625</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.96</v>
+        <v>6.958</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.53</v>
+        <v>5.535</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.28</v>
+        <v>14.276</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.57</v>
+        <v>12.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.05</v>
+        <v>5.049</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.66</v>
+        <v>17.657</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.57</v>
+        <v>7.572</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.8</v>
+        <v>5.804</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.14</v>
+        <v>6.139</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.96</v>
+        <v>5.961</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.594</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.07</v>
+        <v>5.067</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.35</v>
+        <v>7.348</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.22</v>
+        <v>4.222</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.641</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.39</v>
+        <v>72.39100000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.62</v>
+        <v>5.622</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.713</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.32</v>
+        <v>10.322</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.67</v>
+        <v>3.671</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>4.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.04</v>
+        <v>4.041</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.31</v>
+        <v>6.307</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.38</v>
+        <v>15.376</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.76</v>
+        <v>5.762</v>
       </c>
     </row>
     <row r="4">
@@ -863,91 +863,91 @@
         <v>40442.56944444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.82</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.783</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.534</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>18.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.883</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.626</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.08</v>
+        <v>25.078</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.115</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.66</v>
+        <v>4.657</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.25</v>
+        <v>7.252</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.68</v>
+        <v>7.678</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.86</v>
+        <v>7.865</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.13</v>
+        <v>2.127</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.622</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>9.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.546</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.42</v>
+        <v>95.425</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.62</v>
+        <v>18.621</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.047</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.52</v>
+        <v>12.524</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.97</v>
+        <v>6.972</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.24</v>
+        <v>13.242</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.09</v>
+        <v>5.095</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.519</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.451</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>22.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.597</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.58332175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,27 +443,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.55</v>
+        <v>14.549</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>11.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.18</v>
+        <v>31.182</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.17</v>
+        <v>26.174</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.2</v>
+        <v>11.201</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.15</v>
+        <v>42.145</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.2</v>
+        <v>17.198</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.815</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.88</v>
+        <v>11.879</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.66</v>
+        <v>12.658</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.24</v>
+        <v>13.238</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.595</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.16</v>
+        <v>11.162</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.08</v>
+        <v>16.078</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.426</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.302</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.17</v>
+        <v>164.167</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.27</v>
+        <v>31.268</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.26</v>
+        <v>10.257</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.14</v>
+        <v>21.144</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.483</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.4</v>
+        <v>21.397</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.875</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.571</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.32</v>
+        <v>9.315</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.32</v>
+        <v>13.315</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.89</v>
+        <v>37.894</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.09</v>
+        <v>6.087</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.86</v>
+        <v>12.855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40442.58332175926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.16</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_34.xlsx
+++ b/DATA_goal/Junction_Flooding_34.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,27 +443,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.549</v>
+        <v>14.55</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>11.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.661</v>
+        <v>0.66</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.182</v>
+        <v>31.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.174</v>
+        <v>26.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.201</v>
+        <v>11.2</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.145</v>
+        <v>42.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.198</v>
+        <v>17.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.815</v>
+        <v>7.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.879</v>
+        <v>11.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.658</v>
+        <v>12.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.238</v>
+        <v>13.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.595</v>
+        <v>3.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.162</v>
+        <v>11.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.078</v>
+        <v>16.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.302</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.167</v>
+        <v>164.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.268</v>
+        <v>31.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.257</v>
+        <v>10.26</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.144</v>
+        <v>21.14</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>11.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.483</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.397</v>
+        <v>21.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.875</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.571</v>
+        <v>8.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.315</v>
+        <v>9.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.315</v>
+        <v>13.32</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.894</v>
+        <v>37.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.087</v>
+        <v>6.09</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.855</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.58332175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
+        <v>12.86</v>
       </c>
     </row>
   </sheetData>
